--- a/QA Engineer/module_1 testing web-applications/bug-reporting.xlsx
+++ b/QA Engineer/module_1 testing web-applications/bug-reporting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cool_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0a15814e496d175/courses/QA Engineer/module_1 testing web-applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B07625-4D37-4E07-8E95-089F6F0203EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{16B07625-4D37-4E07-8E95-089F6F0203EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6CE3641-7539-4598-A283-489265CDE373}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Модуль 2.4" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Модуль 10.11 bug-report" sheetId="15" r:id="rId15"/>
     <sheet name="Модуль 11.3" sheetId="16" r:id="rId16"/>
     <sheet name="Модуль 11.5" sheetId="17" r:id="rId17"/>
+    <sheet name="Лист1" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="565">
   <si>
     <t>Заголовок</t>
   </si>
@@ -3016,12 +3017,71 @@
   <si>
     <t>Дополнение</t>
   </si>
+  <si>
+    <t>Кнопка "Позвоните мне!" на мобильном устройте имеет маленький размер.</t>
+  </si>
+  <si>
+    <t>Окружение</t>
+  </si>
+  <si>
+    <t>Nothing phone(1) 
+Android 14, Nothing OS 2.5.5 
+Яндекс Браузер 24.4.7</t>
+  </si>
+  <si>
+    <t>Любое</t>
+  </si>
+  <si>
+    <t>Версия сайта</t>
+  </si>
+  <si>
+    <t>0.12.1</t>
+  </si>
+  <si>
+    <t>Стабильность воспроизведения</t>
+  </si>
+  <si>
+    <t>Стабильно</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открыть сайт: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://qa.skillbox.ru/module10/practice2/#</t>
+    </r>
+  </si>
+  <si>
+    <t>Спуститься вниз до кнопки "Позвоните мне!"</t>
+  </si>
+  <si>
+    <t>1. Открыть панель разработчика
+2. Установить размер отображения сайта: 1024px 768px
+3. Изменить размер отображения сайта: 1023px 767px</t>
+  </si>
+  <si>
+    <t>1. Открыть панель разработчика
+2. Установить размер отображения сайта: 376px 768px
+3. Изменить размер отображения сайта: 375px 767px</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3142,8 +3202,48 @@
       <color rgb="FF1155CC"/>
       <name val="&quot;Helvetica Neue&quot;, Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3186,8 +3286,14 @@
         <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3262,11 +3368,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3360,28 +3482,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3400,8 +3500,54 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3634,7 +3780,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3725,28 +3871,28 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="12.75">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="12.75">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="12.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="12.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3916,7 +4062,7 @@
     <col min="2" max="12" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="12.75">
       <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
@@ -4189,16 +4335,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4209,10 +4355,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2" t="s">
         <v>363</v>
       </c>
@@ -4221,10 +4367,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="2" t="s">
         <v>365</v>
       </c>
@@ -4233,10 +4379,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="26" t="s">
         <v>367</v>
       </c>
@@ -4245,16 +4391,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="43" t="s">
         <v>360</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -4265,10 +4411,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="1" t="s">
         <v>374</v>
       </c>
@@ -4277,10 +4423,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="51">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="1" t="s">
         <v>376</v>
       </c>
@@ -4289,10 +4435,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="26" t="s">
         <v>378</v>
       </c>
@@ -4301,60 +4447,60 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="43" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="43" t="s">
         <v>360</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -4365,35 +4511,42 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="43" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -4407,13 +4560,6 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -4461,16 +4607,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
         <v>361</v>
       </c>
@@ -4479,10 +4625,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2" t="s">
         <v>363</v>
       </c>
@@ -4491,10 +4637,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="2" t="s">
         <v>365</v>
       </c>
@@ -4503,10 +4649,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="26" t="s">
         <v>367</v>
       </c>
@@ -4515,16 +4661,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="2" t="s">
         <v>372</v>
       </c>
@@ -4533,10 +4679,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="1" t="s">
         <v>374</v>
       </c>
@@ -4545,10 +4691,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="51">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="1" t="s">
         <v>376</v>
       </c>
@@ -4557,10 +4703,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="26" t="s">
         <v>378</v>
       </c>
@@ -4569,58 +4715,58 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="43" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="2" t="s">
         <v>388</v>
       </c>
@@ -4629,44 +4775,44 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="43" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6" ht="25.5">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="1" t="s">
         <v>399</v>
       </c>
@@ -4675,10 +4821,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="25.5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="1" t="s">
         <v>401</v>
       </c>
@@ -4687,10 +4833,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="26" t="s">
         <v>403</v>
       </c>
@@ -4699,10 +4845,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="2" t="s">
         <v>405</v>
       </c>
@@ -4711,10 +4857,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="1" t="s">
         <v>406</v>
       </c>
@@ -4723,10 +4869,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="38.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="1" t="s">
         <v>408</v>
       </c>
@@ -4735,10 +4881,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="1" t="s">
         <v>410</v>
       </c>
@@ -4747,10 +4893,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="25.5">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="26" t="s">
         <v>412</v>
       </c>
@@ -4759,19 +4905,28 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="51"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="51"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="C18:C25"/>
@@ -4788,15 +4943,6 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -4827,7 +4973,7 @@
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="27" t="s">
         <v>295</v>
       </c>
@@ -4838,7 +4984,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="12.75">
       <c r="A2" s="28" t="s">
         <v>416</v>
       </c>
@@ -4847,7 +4993,7 @@
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="30" t="s">
         <v>418</v>
       </c>
@@ -4856,7 +5002,7 @@
       </c>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="30" t="s">
         <v>420</v>
       </c>
@@ -4865,7 +5011,7 @@
       </c>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="30" t="s">
         <v>421</v>
       </c>
@@ -4874,7 +5020,7 @@
       </c>
       <c r="C5" s="30"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="30" t="s">
         <v>422</v>
       </c>
@@ -4883,7 +5029,7 @@
       </c>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="30" t="s">
         <v>423</v>
       </c>
@@ -4892,7 +5038,7 @@
       </c>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="30" t="s">
         <v>424</v>
       </c>
@@ -4901,7 +5047,7 @@
       </c>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="12.75">
       <c r="A9" s="30" t="s">
         <v>426</v>
       </c>
@@ -4910,7 +5056,7 @@
       </c>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="12.75">
       <c r="A10" s="30" t="s">
         <v>427</v>
       </c>
@@ -4919,7 +5065,7 @@
       </c>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="12.75">
       <c r="A11" s="28" t="s">
         <v>428</v>
       </c>
@@ -4928,7 +5074,7 @@
       </c>
       <c r="C11" s="30"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="12.75">
       <c r="A12" s="30" t="s">
         <v>418</v>
       </c>
@@ -4937,7 +5083,7 @@
       </c>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="12.75">
       <c r="A13" s="30" t="s">
         <v>420</v>
       </c>
@@ -4946,7 +5092,7 @@
       </c>
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="12.75">
       <c r="A14" s="30" t="s">
         <v>421</v>
       </c>
@@ -4955,7 +5101,7 @@
       </c>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="12.75">
       <c r="A15" s="30" t="s">
         <v>422</v>
       </c>
@@ -4964,7 +5110,7 @@
       </c>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="12.75">
       <c r="A16" s="30" t="s">
         <v>427</v>
       </c>
@@ -4973,7 +5119,7 @@
       </c>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="12.75">
       <c r="A17" s="30" t="s">
         <v>429</v>
       </c>
@@ -4982,7 +5128,7 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="12.75">
       <c r="A18" s="28" t="s">
         <v>430</v>
       </c>
@@ -4991,7 +5137,7 @@
       </c>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="30" t="s">
         <v>418</v>
       </c>
@@ -5000,7 +5146,7 @@
       </c>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="12.75">
       <c r="A20" s="30" t="s">
         <v>420</v>
       </c>
@@ -5009,7 +5155,7 @@
       </c>
       <c r="C20" s="30"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="30" t="s">
         <v>421</v>
       </c>
@@ -5018,7 +5164,7 @@
       </c>
       <c r="C21" s="30"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="12.75">
       <c r="A22" s="30" t="s">
         <v>422</v>
       </c>
@@ -5027,7 +5173,7 @@
       </c>
       <c r="C22" s="30"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="12.75">
       <c r="A23" s="30" t="s">
         <v>423</v>
       </c>
@@ -5036,7 +5182,7 @@
       </c>
       <c r="C23" s="30"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="12.75">
       <c r="A24" s="30" t="s">
         <v>427</v>
       </c>
@@ -5045,7 +5191,7 @@
       </c>
       <c r="C24" s="30"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="12.75">
       <c r="A25" s="30" t="s">
         <v>431</v>
       </c>
@@ -5054,7 +5200,7 @@
       </c>
       <c r="C25" s="30"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="12.75">
       <c r="A26" s="30" t="s">
         <v>432</v>
       </c>
@@ -5063,7 +5209,7 @@
       </c>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="12.75">
       <c r="A27" s="33" t="s">
         <v>433</v>
       </c>
@@ -5072,7 +5218,7 @@
       </c>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="12.75">
       <c r="A28" s="28" t="s">
         <v>434</v>
       </c>
@@ -5117,7 +5263,7 @@
       </c>
       <c r="C32" s="30"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="12.75">
       <c r="A33" s="34" t="s">
         <v>437</v>
       </c>
@@ -5145,7 +5291,7 @@
     <col min="1" max="12" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="12.75">
       <c r="A1" s="4"/>
       <c r="B1" s="20" t="s">
         <v>113</v>
@@ -5371,7 +5517,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="12.75">
       <c r="A7" s="21" t="s">
         <v>64</v>
       </c>
@@ -5395,7 +5541,7 @@
   </sheetPr>
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5403,7 +5549,7 @@
     <col min="2" max="16" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="12.75">
       <c r="B1" s="15" t="s">
         <v>113</v>
       </c>
@@ -5743,7 +5889,7 @@
     <col min="2" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="12.75">
       <c r="B1" s="15" t="s">
         <v>113</v>
       </c>
@@ -5772,7 +5918,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="89.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5990,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="19" t="s">
         <v>551</v>
       </c>
@@ -5863,6 +6009,178 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DD5F40-ACA5-4DDB-80C8-76C3459AD113}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="4" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39" thickBot="1">
+      <c r="A2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51.75" thickBot="1">
+      <c r="A3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39" thickBot="1">
+      <c r="A4" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A5" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A6" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39" thickBot="1">
+      <c r="A7" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="102.75" thickBot="1">
+      <c r="A8" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" thickBot="1">
+      <c r="A9" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1">
+      <c r="A10" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A11" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://qa.skillbox.ru/module10/practice2/" xr:uid="{BFB05791-163D-40A8-AA0D-3B0258E1ACF4}"/>
+    <hyperlink ref="D7" r:id="rId2" display="http://qa.skillbox.ru/module10/practice2/" xr:uid="{329F14C9-723B-4785-833E-C7B72E751439}"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://qa.skillbox.ru/module10/practice2/" xr:uid="{9F72C763-48A7-4A2C-898A-65EEECDFFDBE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5885,59 +6203,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="63.75">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="89.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="89.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="12.75">
       <c r="C8" s="7"/>
     </row>
   </sheetData>
@@ -5965,7 +6283,7 @@
     <col min="5" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>34</v>
@@ -5984,7 +6302,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="76.5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -6004,7 +6322,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="76.5">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -6024,7 +6342,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="165.75">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -6044,7 +6362,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="76.5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -6064,7 +6382,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="63.75">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -6084,7 +6402,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -6123,7 +6441,7 @@
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
@@ -6195,7 +6513,7 @@
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="12.75">
       <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
@@ -6390,7 +6708,7 @@
     <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="19"/>
       <c r="B1" s="14" t="s">
         <v>113</v>
@@ -6472,7 +6790,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="18" t="s">
         <v>64</v>
       </c>
@@ -6509,7 +6827,7 @@
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="12.75">
       <c r="B1" s="14" t="s">
         <v>113</v>
       </c>
@@ -6788,7 +7106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="12.75">
       <c r="A7" s="18" t="s">
         <v>64</v>
       </c>
@@ -6820,7 +7138,7 @@
     <col min="7" max="7" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="4"/>
       <c r="B1" s="20" t="s">
         <v>113</v>
@@ -6987,7 +7305,7 @@
     <col min="2" max="14" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
